--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_17-55.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_17-55.xlsx
@@ -68,54 +68,57 @@
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>AUGRAM 1GM 14 TABS</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>CAPIXY LASH SERUM</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>COGINTOL 20 TAB.</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>AUGRAM 1GM 14 TABS</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>CAPIXY LASH SERUM</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>CLARITINE 10MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>COGINTOL 20 TAB.</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
     <t>CONCOR 10MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -137,6 +140,9 @@
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
     <t>E-MOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -191,6 +197,12 @@
     <t>2:4</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
     <t>MACROFURAN 100 MG 30 CAPS</t>
   </si>
   <si>
@@ -206,6 +218,9 @@
     <t>NORIGYNCIN 1M AP.</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
     <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
   </si>
   <si>
@@ -267,9 +282,6 @@
   </si>
   <si>
     <t xml:space="preserve">URINEX 36 CAP </t>
-  </si>
-  <si>
-    <t>0:3</t>
   </si>
   <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
@@ -1041,11 +1053,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -1053,7 +1065,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1079,7 +1091,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1087,7 +1099,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -1191,7 +1203,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -1321,7 +1333,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -1339,7 +1351,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1347,7 +1359,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -1365,7 +1377,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1391,7 +1403,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1399,7 +1411,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -1417,7 +1429,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1425,7 +1437,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -1443,7 +1455,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1469,7 +1481,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1477,17 +1489,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1503,13 +1515,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1521,7 +1533,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1529,13 +1541,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1547,7 +1559,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1555,13 +1567,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1573,7 +1585,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1581,17 +1593,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1599,7 +1611,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1607,17 +1619,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1639,11 +1651,11 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1659,13 +1671,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>55.670000000000002</v>
+        <v>15</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1677,7 +1689,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1685,17 +1697,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>190</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1703,7 +1715,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1717,7 +1729,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>15.300000000000001</v>
+        <v>190</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1729,7 +1741,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1737,13 +1749,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>85.560000000000002</v>
+        <v>15.300000000000001</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1755,7 +1767,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1763,13 +1775,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>39</v>
+        <v>85.560000000000002</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1781,7 +1793,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1795,7 +1807,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1807,7 +1819,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1815,17 +1827,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1841,13 +1853,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>27.329999999999998</v>
+        <v>24</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1859,7 +1871,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1867,13 +1879,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1885,7 +1897,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1893,17 +1905,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>277.5</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1911,7 +1923,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1919,17 +1931,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1937,7 +1949,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1945,13 +1957,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>31</v>
+        <v>277.5</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -1963,7 +1975,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1971,17 +1983,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1989,7 +2001,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1997,17 +2009,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2015,7 +2027,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2023,13 +2035,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2041,7 +2053,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2049,17 +2061,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>240</v>
+        <v>32</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2067,7 +2079,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2075,17 +2087,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2093,7 +2105,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2101,13 +2113,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2119,7 +2131,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2127,17 +2139,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2145,7 +2157,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2153,17 +2165,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2171,7 +2183,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2179,13 +2191,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2197,7 +2209,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2205,17 +2217,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>56.399999999999999</v>
+        <v>45</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2223,7 +2235,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2231,17 +2243,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2249,7 +2261,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2257,7 +2269,7 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
@@ -2275,7 +2287,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2283,13 +2295,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>31</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2301,7 +2313,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2309,17 +2321,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>65.75</v>
+        <v>23</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2327,7 +2339,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2335,13 +2347,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2353,7 +2365,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2361,17 +2373,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2379,7 +2391,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2387,17 +2399,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>44</v>
+        <v>65.75</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>86</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2405,7 +2417,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2413,13 +2425,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2431,7 +2443,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2439,17 +2451,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2457,7 +2469,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2465,17 +2477,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2483,7 +2495,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2491,13 +2503,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>2.5</v>
+        <v>36</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2517,13 +2529,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2543,17 +2555,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2569,13 +2581,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>25</v>
+        <v>2.5</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2587,7 +2599,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2595,17 +2607,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>97</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2613,7 +2625,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2621,17 +2633,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2639,7 +2651,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2647,13 +2659,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2665,7 +2677,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2673,17 +2685,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>17</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2691,7 +2703,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2699,13 +2711,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2731,7 +2743,7 @@
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2751,13 +2763,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2777,13 +2789,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>19.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2803,7 +2815,7 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
@@ -2821,7 +2833,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2829,13 +2841,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2843,37 +2855,115 @@
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
-      <c r="K78" s="10">
-        <v>4394.71</v>
-      </c>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-    </row>
-    <row r="79" ht="17.25" customHeight="1">
-      <c t="s" r="A79" s="11">
-        <v>110</v>
-      </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c t="s" r="F79" s="12">
+      <c r="A78" s="6">
+        <v>75</v>
+      </c>
+      <c t="s" r="B78" s="7">
         <v>111</v>
       </c>
-      <c r="G79" s="12"/>
-      <c r="H79" s="13"/>
-      <c t="s" r="I79" s="14">
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c t="s" r="H78" s="8">
+        <v>103</v>
+      </c>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="9">
+        <v>19.199999999999999</v>
+      </c>
+      <c r="M78" s="9"/>
+      <c t="s" r="N78" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" ht="24.75" customHeight="1">
+      <c r="A79" s="6">
+        <v>76</v>
+      </c>
+      <c t="s" r="B79" s="7">
         <v>112</v>
       </c>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="14"/>
-      <c r="N79" s="14"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c t="s" r="H79" s="8">
+        <v>17</v>
+      </c>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="9">
+        <v>20</v>
+      </c>
+      <c r="M79" s="9"/>
+      <c t="s" r="N79" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" ht="25.5" customHeight="1">
+      <c r="A80" s="6">
+        <v>77</v>
+      </c>
+      <c t="s" r="B80" s="7">
+        <v>113</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c t="s" r="H80" s="8">
+        <v>51</v>
+      </c>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="9">
+        <v>30</v>
+      </c>
+      <c r="M80" s="9"/>
+      <c t="s" r="N80" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="K81" s="10">
+        <v>4471.71</v>
+      </c>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="11">
+        <v>114</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c t="s" r="F82" s="12">
+        <v>115</v>
+      </c>
+      <c r="G82" s="12"/>
+      <c r="H82" s="13"/>
+      <c t="s" r="I82" s="14">
+        <v>116</v>
+      </c>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="233">
+  <mergeCells count="242">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3103,10 +3193,19 @@
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="I79:N79"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="I82:N82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
